--- a/data/trans_orig/IP09C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09C_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF86667-87CA-4401-8920-014ABA89C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E76F843B-4BBB-4D2A-8910-098E2F570BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{80313FC7-3ED0-44AB-BA83-CBE22CC37119}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{099E26CC-9167-4106-A7E2-EF68243D20EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="615">
   <si>
     <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2007 (Tasa respuesta: 9,08%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -94,10 +94,10 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>Varicela/Paperas/Sarampion</t>
@@ -106,22 +106,22 @@
     <t>17,65%</t>
   </si>
   <si>
-    <t>45,24%</t>
+    <t>45,09%</t>
   </si>
   <si>
     <t>21,92%</t>
   </si>
   <si>
-    <t>55,43%</t>
+    <t>57,36%</t>
   </si>
   <si>
     <t>19,71%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>Gastroenteritis/Gases/Digestivo</t>
@@ -139,1741 +139,1750 @@
     <t>27,08%</t>
   </si>
   <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>Esguince/Luxacion/Rotura</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>Alergia/Asma</t>
+  </si>
+  <si>
+    <t>Fiebre</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2012 (Tasa respuesta: 11,91%)</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2016 (Tasa respuesta: 6,07%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>Esguince/Luxacion/Rotura</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>Alergia/Asma</t>
-  </si>
-  <si>
-    <t>Fiebre</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>9,78%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2012 (Tasa respuesta: 11,91%)</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
   </si>
   <si>
     <t>4,78%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>Menores según motivo de salud que produjo dicha enfermedad, dolencia.. Recodificada para poder comparar los 3 años 7-11-15 en 2015 (Tasa respuesta: 6,07%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FA3B5A-B8FE-43E2-AA3B-155D35138EEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2995D3B-D971-4399-AFC5-FAC4E67F65D0}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3364,10 +3373,10 @@
         <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3391,13 @@
         <v>8119</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3397,13 +3406,13 @@
         <v>4468</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -3412,13 +3421,13 @@
         <v>12587</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3442,13 @@
         <v>1439</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3448,13 +3457,13 @@
         <v>3853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -3463,13 +3472,13 @@
         <v>5292</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3493,13 @@
         <v>2715</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3499,13 +3508,13 @@
         <v>986</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3514,13 +3523,13 @@
         <v>3702</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3544,13 @@
         <v>2146</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3550,13 +3559,13 @@
         <v>4235</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>9</v>
@@ -3565,13 +3574,13 @@
         <v>6381</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3648,13 @@
         <v>5989</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3654,13 +3663,13 @@
         <v>1384</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -3669,13 +3678,13 @@
         <v>7373</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3699,13 @@
         <v>7658</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3705,13 +3714,13 @@
         <v>9204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>25</v>
@@ -3720,13 +3729,13 @@
         <v>16862</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3750,13 @@
         <v>3877</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -3756,13 +3765,13 @@
         <v>1374</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -3771,13 +3780,13 @@
         <v>5251</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3801,13 @@
         <v>29565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -3807,13 +3816,13 @@
         <v>21640</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>77</v>
@@ -3822,13 +3831,13 @@
         <v>51205</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3852,13 @@
         <v>12452</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -3858,10 +3867,10 @@
         <v>8124</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>209</v>
@@ -3909,13 +3918,13 @@
         <v>5127</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" s="7">
         <v>24</v>
@@ -3924,13 +3933,13 @@
         <v>16223</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3954,13 @@
         <v>6167</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -3960,13 +3969,13 @@
         <v>4852</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -3978,10 +3987,10 @@
         <v>227</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE85346-C9C7-4B59-8E0F-B9F41558905D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72786902-87F7-4F77-AEBD-C9BA463C9B6A}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4285,10 +4294,10 @@
         <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4297,13 +4306,13 @@
         <v>1322</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4312,13 +4321,13 @@
         <v>3285</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4342,13 @@
         <v>2047</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4348,13 +4357,13 @@
         <v>3220</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4363,13 +4372,13 @@
         <v>5267</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4393,13 @@
         <v>1762</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4414,13 +4423,13 @@
         <v>1762</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4444,13 @@
         <v>1705</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -4450,13 +4459,13 @@
         <v>3474</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -4465,13 +4474,13 @@
         <v>5179</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4495,13 @@
         <v>641</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -4501,13 +4510,13 @@
         <v>1950</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4516,13 +4525,13 @@
         <v>2591</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4599,13 @@
         <v>11939</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4605,13 +4614,13 @@
         <v>7784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -4620,13 +4629,13 @@
         <v>19723</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4650,13 @@
         <v>3433</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4656,13 +4665,13 @@
         <v>3556</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4671,13 +4680,13 @@
         <v>6988</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4701,13 @@
         <v>3733</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -4707,13 +4716,13 @@
         <v>1267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4722,13 +4731,13 @@
         <v>5000</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4752,13 @@
         <v>28671</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -4758,13 +4767,13 @@
         <v>29307</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M15" s="7">
         <v>83</v>
@@ -4773,13 +4782,13 @@
         <v>57978</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4803,13 @@
         <v>3561</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4809,13 +4818,13 @@
         <v>2017</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4824,13 +4833,13 @@
         <v>5579</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4854,13 @@
         <v>6231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4860,13 +4869,13 @@
         <v>3624</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -4875,13 +4884,13 @@
         <v>9855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +4905,13 @@
         <v>9467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4911,13 +4920,13 @@
         <v>4018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>334</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -4926,13 +4935,13 @@
         <v>13485</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5009,13 @@
         <v>2039</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5015,13 +5024,13 @@
         <v>1500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5030,13 +5039,13 @@
         <v>3539</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5060,13 @@
         <v>1963</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -5066,13 +5075,13 @@
         <v>1422</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -5081,13 +5090,13 @@
         <v>3385</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5111,7 @@
         <v>668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>14</v>
@@ -5135,10 +5144,10 @@
         <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>76</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5162,13 @@
         <v>5863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5168,13 +5177,13 @@
         <v>3819</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -5183,13 +5192,13 @@
         <v>9682</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,10 +5213,10 @@
         <v>4640</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>366</v>
@@ -5219,13 +5228,13 @@
         <v>1331</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5324,10 +5333,10 @@
         <v>379</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -5336,13 +5345,13 @@
         <v>3826</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,13 +5419,13 @@
         <v>16764</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5425,13 +5434,13 @@
         <v>11327</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -5440,13 +5449,13 @@
         <v>28091</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5470,13 @@
         <v>5396</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -5476,13 +5485,13 @@
         <v>4978</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -5491,13 +5500,13 @@
         <v>10374</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5521,13 @@
         <v>6365</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5548,7 +5557,7 @@
         <v>408</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5572,13 @@
         <v>36581</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H31" s="7">
         <v>53</v>
@@ -5578,13 +5587,13 @@
         <v>36347</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M31" s="7">
         <v>105</v>
@@ -5593,13 +5602,13 @@
         <v>72927</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5623,13 @@
         <v>9963</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -5629,13 +5638,13 @@
         <v>3348</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -5644,13 +5653,13 @@
         <v>13312</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5674,13 @@
         <v>10291</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -5680,13 +5689,13 @@
         <v>7098</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M33" s="7">
         <v>24</v>
@@ -5695,13 +5704,13 @@
         <v>17389</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,13 +5725,13 @@
         <v>11331</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -5731,13 +5740,13 @@
         <v>8571</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -5746,13 +5755,13 @@
         <v>19902</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBD2264-4E20-4F9F-A78C-B111608F1F01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1FC443-12B5-4F90-ABDF-E6E37AD58F9C}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5844,7 +5853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5957,7 +5966,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5966,13 +5975,13 @@
         <v>836</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5987,7 +5996,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6011,13 @@
         <v>644</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6017,13 +6026,13 @@
         <v>544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6032,13 +6041,13 @@
         <v>1188</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6068,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6074,7 +6083,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6104,13 +6113,13 @@
         <v>1338</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6119,13 +6128,13 @@
         <v>1242</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -6134,10 +6143,10 @@
         <v>2579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>458</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>459</v>
@@ -6161,7 +6170,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6206,13 +6215,13 @@
         <v>791</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>124</v>
+        <v>464</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6227,7 +6236,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6242,7 +6251,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>466</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,7 +6272,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6278,7 +6287,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6287,13 +6296,13 @@
         <v>699</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6370,13 @@
         <v>8800</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -6376,13 +6385,13 @@
         <v>5230</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -6391,13 +6400,13 @@
         <v>14029</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6421,13 @@
         <v>917</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6427,13 +6436,13 @@
         <v>1181</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -6442,13 +6451,13 @@
         <v>2099</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,13 +6472,13 @@
         <v>2295</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6478,13 +6487,13 @@
         <v>1388</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -6493,13 +6502,13 @@
         <v>3683</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6523,13 @@
         <v>11389</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="H15" s="7">
         <v>17</v>
@@ -6529,13 +6538,13 @@
         <v>11251</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
@@ -6544,13 +6553,13 @@
         <v>22640</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6565,13 +6574,13 @@
         <v>3710</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>502</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>503</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6580,13 +6589,13 @@
         <v>4076</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -6595,13 +6604,13 @@
         <v>7787</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6625,13 @@
         <v>5031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6631,13 +6640,13 @@
         <v>4687</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -6646,13 +6655,13 @@
         <v>9718</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6676,13 @@
         <v>1598</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -6703,7 +6712,7 @@
         <v>521</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,13 +6780,13 @@
         <v>2075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -6786,13 +6795,13 @@
         <v>2018</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -6801,13 +6810,13 @@
         <v>4093</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6837,7 @@
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6873,13 +6882,13 @@
         <v>2137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>530</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -6888,13 +6897,13 @@
         <v>1905</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -6903,13 +6912,13 @@
         <v>4041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6933,13 @@
         <v>1318</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -6939,13 +6948,13 @@
         <v>4055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -6954,13 +6963,13 @@
         <v>5373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6984,13 @@
         <v>737</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6990,13 +6999,13 @@
         <v>605</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -7005,13 +7014,13 @@
         <v>1342</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7035,13 @@
         <v>1341</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>551</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -7041,13 +7050,13 @@
         <v>1160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -7056,13 +7065,13 @@
         <v>2501</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>555</v>
+        <v>406</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7086,13 @@
         <v>1212</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7107,13 +7116,13 @@
         <v>1212</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7190,13 @@
         <v>10875</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -7196,13 +7205,13 @@
         <v>8083</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -7211,13 +7220,13 @@
         <v>18958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,13 +7241,13 @@
         <v>1562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>571</v>
+        <v>278</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -7247,13 +7256,13 @@
         <v>1725</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>575</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -7262,13 +7271,13 @@
         <v>3287</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7292,13 @@
         <v>4432</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>483</v>
+        <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7298,13 +7307,13 @@
         <v>3293</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7313,13 +7322,13 @@
         <v>7725</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>581</v>
+        <v>238</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>583</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7343,13 @@
         <v>14044</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>265</v>
+        <v>587</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -7349,13 +7358,13 @@
         <v>16548</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="M31" s="7">
         <v>47</v>
@@ -7364,13 +7373,13 @@
         <v>30592</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>469</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7394,13 @@
         <v>4447</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -7400,13 +7409,13 @@
         <v>5246</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -7415,13 +7424,13 @@
         <v>9693</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>156</v>
+        <v>600</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>597</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7445,13 @@
         <v>7163</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -7451,13 +7460,13 @@
         <v>5846</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>602</v>
+        <v>401</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -7466,13 +7475,13 @@
         <v>13010</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>605</v>
+        <v>127</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7496,13 @@
         <v>2811</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>609</v>
+        <v>94</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7508,7 +7517,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>277</v>
+        <v>611</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -7517,13 +7526,13 @@
         <v>4180</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>327</v>
+        <v>612</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>296</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
